--- a/backlogM2IL.xlsx
+++ b/backlogM2IL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>En tant que chef d'équipe j'ai besoin de valider la formation des salariés</t>
+  </si>
+  <si>
+    <t>GuillaumeNG</t>
+  </si>
+  <si>
+    <t>GeorgiaLR</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -309,7 +318,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -436,11 +444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95236864"/>
-        <c:axId val="95238784"/>
+        <c:axId val="103110144"/>
+        <c:axId val="103112064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95236864"/>
+        <c:axId val="103110144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +457,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95238784"/>
+        <c:crossAx val="103112064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -457,7 +465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95238784"/>
+        <c:axId val="103112064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,21 +488,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95236864"/>
+        <c:crossAx val="103110144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -920,7 +926,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1035,9 @@
       <c r="F5" s="11">
         <v>8</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1048,7 +1056,9 @@
       <c r="F6" s="11">
         <v>5</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -1067,7 +1077,9 @@
       <c r="F7" s="11">
         <v>13</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1130,7 +1142,9 @@
       <c r="F10" s="11">
         <v>21</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>

--- a/backlogM2IL.xlsx
+++ b/backlogM2IL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="14115" windowHeight="6210" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="14115" windowHeight="6210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Objectif" sheetId="3" r:id="rId1"/>
@@ -318,6 +318,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -372,6 +373,12 @@
                 <c:pt idx="0">
                   <c:v>81</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -421,13 +428,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,11 +451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103110144"/>
-        <c:axId val="103112064"/>
+        <c:axId val="88888832"/>
+        <c:axId val="88890752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103110144"/>
+        <c:axId val="88888832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +464,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103112064"/>
+        <c:crossAx val="88890752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -465,7 +472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103112064"/>
+        <c:axId val="88890752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,19 +495,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103110144"/>
+        <c:crossAx val="88888832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -925,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,35 +1215,45 @@
         <v>27</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>81</v>
+      </c>
       <c r="D4" s="2">
         <v>27</v>
       </c>
       <c r="E4" s="2">
-        <f>B4</f>
-        <v>0</v>
+        <f>E3-D4</f>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <f>8+13</f>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4-B5</f>
+        <v>60</v>
+      </c>
       <c r="D5" s="2">
         <v>27</v>
       </c>
       <c r="E5" s="2">
-        <f>B4+B5</f>
-        <v>0</v>
+        <f>E4-D5</f>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
